--- a/data/trans_orig/P36BPD06_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD06_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>25606</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16827</v>
+        <v>17406</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36863</v>
+        <v>35841</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08030727827858909</v>
+        <v>0.08030727827858912</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05277378985745727</v>
+        <v>0.05459017870620926</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1156142206464524</v>
+        <v>0.1124083677891585</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -762,19 +762,19 @@
         <v>26627</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19171</v>
+        <v>20186</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34661</v>
+        <v>35100</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08424604440305956</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06065462991076123</v>
+        <v>0.06386657472010314</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1096666009371733</v>
+        <v>0.1110540976893949</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -783,19 +783,19 @@
         <v>52232</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41209</v>
+        <v>41318</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65710</v>
+        <v>65131</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08226802381054056</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06490536206389352</v>
+        <v>0.06507693459989031</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1034953102712144</v>
+        <v>0.1025829242380988</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>293239</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>281982</v>
+        <v>283004</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>302018</v>
+        <v>301439</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9196927217214109</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8843857793535476</v>
+        <v>0.8875916322108408</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9472262101425426</v>
+        <v>0.9454098212937906</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>489</v>
@@ -833,19 +833,19 @@
         <v>289434</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>281400</v>
+        <v>280961</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>296890</v>
+        <v>295875</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9157539555969404</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8903333990628268</v>
+        <v>0.8889459023106052</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9393453700892388</v>
+        <v>0.936133425279897</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>792</v>
@@ -854,19 +854,19 @@
         <v>582674</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>569196</v>
+        <v>569775</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>593697</v>
+        <v>593588</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9177319761894596</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8965046897287849</v>
+        <v>0.8974170757619012</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9350946379361067</v>
+        <v>0.9349230654001098</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>89671</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69698</v>
+        <v>68925</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>113593</v>
+        <v>113739</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1693941894949344</v>
+        <v>0.1693941894949343</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.131664347486814</v>
+        <v>0.1302033381481779</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2145843514955055</v>
+        <v>0.2148604306830787</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>162</v>
@@ -979,19 +979,19 @@
         <v>126600</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>108995</v>
+        <v>108913</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>145915</v>
+        <v>147476</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2316584877053635</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1994447780557001</v>
+        <v>0.1992949082996674</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2670015219675869</v>
+        <v>0.2698590068729095</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>225</v>
@@ -1000,19 +1000,19 @@
         <v>216271</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>187944</v>
+        <v>188689</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>247422</v>
+        <v>244661</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2010221395069094</v>
+        <v>0.2010221395069095</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1746927573011142</v>
+        <v>0.175385510257975</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2299772411127893</v>
+        <v>0.2274110368865395</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>439690</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>415768</v>
+        <v>415622</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>459663</v>
+        <v>460436</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8306058105050659</v>
+        <v>0.8306058105050655</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7854156485044944</v>
+        <v>0.7851395693169213</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.868335652513186</v>
+        <v>0.8697966618518221</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>555</v>
@@ -1050,19 +1050,19 @@
         <v>419894</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>400579</v>
+        <v>399018</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>437499</v>
+        <v>437581</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7683415122946364</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7329984780324131</v>
+        <v>0.7301409931270904</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8005552219443</v>
+        <v>0.8007050917003325</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>873</v>
@@ -1071,19 +1071,19 @@
         <v>859584</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>828433</v>
+        <v>831194</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>887911</v>
+        <v>887166</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7989778604930904</v>
+        <v>0.7989778604930905</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7700227588872105</v>
+        <v>0.7725889631134601</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8253072426988857</v>
+        <v>0.8246144897420244</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>23513</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15322</v>
+        <v>15557</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35850</v>
+        <v>36333</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07483379732394725</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04876523135738247</v>
+        <v>0.04951191581516329</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1140970026624375</v>
+        <v>0.1156344872551404</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -1196,19 +1196,19 @@
         <v>50379</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39724</v>
+        <v>40304</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63045</v>
+        <v>62343</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1428230739991573</v>
+        <v>0.1428230739991574</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1126165205823689</v>
+        <v>0.114260850707567</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1787296871191369</v>
+        <v>0.1767399112769231</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -1217,19 +1217,19 @@
         <v>73892</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59826</v>
+        <v>59418</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90835</v>
+        <v>88676</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1107925412024587</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08970187280094985</v>
+        <v>0.08908968551173109</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1361961637571717</v>
+        <v>0.1329583588904686</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>290691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>278354</v>
+        <v>277871</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>298882</v>
+        <v>298647</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9251662026760529</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8859029973375625</v>
+        <v>0.8843655127448596</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9512347686426174</v>
+        <v>0.9504880841848367</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>461</v>
@@ -1267,19 +1267,19 @@
         <v>302359</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>289693</v>
+        <v>290395</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>313014</v>
+        <v>312434</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8571769260008426</v>
+        <v>0.8571769260008427</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8212703128808631</v>
+        <v>0.8232600887230769</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8873834794176311</v>
+        <v>0.8857391492924329</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>794</v>
@@ -1288,19 +1288,19 @@
         <v>593051</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>576108</v>
+        <v>578267</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>607117</v>
+        <v>607525</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8892074587975414</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8638038362428283</v>
+        <v>0.8670416411095319</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9102981271990501</v>
+        <v>0.9109103144882693</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>49032</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33997</v>
+        <v>34362</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70117</v>
+        <v>68005</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1319967964874615</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09152314620989412</v>
+        <v>0.09250428561961982</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1887615909649162</v>
+        <v>0.1830743457707573</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -1413,19 +1413,19 @@
         <v>54339</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43048</v>
+        <v>42819</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67422</v>
+        <v>67901</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1289073857701156</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1021218691502596</v>
+        <v>0.1015778165762317</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1599418623652686</v>
+        <v>0.1610790514742606</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>115</v>
@@ -1434,19 +1434,19 @@
         <v>103371</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86025</v>
+        <v>86173</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>127738</v>
+        <v>129643</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1303545424281431</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1084805194487548</v>
+        <v>0.1086670765209161</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1610820405593277</v>
+        <v>0.1634846062571265</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>322428</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>301343</v>
+        <v>303455</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>337463</v>
+        <v>337098</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8680032035125387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8112384090350839</v>
+        <v>0.8169256542292426</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9084768537901059</v>
+        <v>0.9074957143803801</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>525</v>
@@ -1484,19 +1484,19 @@
         <v>367199</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>354116</v>
+        <v>353637</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>378490</v>
+        <v>378719</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8710926142298844</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8400581376347313</v>
+        <v>0.8389209485257391</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8978781308497403</v>
+        <v>0.8984221834237681</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>773</v>
@@ -1505,19 +1505,19 @@
         <v>689627</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>665260</v>
+        <v>663355</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>706973</v>
+        <v>706825</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8696454575718569</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8389179594406724</v>
+        <v>0.836515393742873</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8915194805512455</v>
+        <v>0.8913329234790837</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>42595</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32373</v>
+        <v>32320</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54745</v>
+        <v>53629</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2084884577877526</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1584533135458032</v>
+        <v>0.1581964506873901</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2679589327706775</v>
+        <v>0.2624967661632588</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -1630,19 +1630,19 @@
         <v>30808</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23876</v>
+        <v>23824</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39295</v>
+        <v>39691</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1360874649827811</v>
+        <v>0.136087464982781</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1054669485746738</v>
+        <v>0.1052377033082638</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1735789328265489</v>
+        <v>0.1753263243618548</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>119</v>
@@ -1651,19 +1651,19 @@
         <v>73403</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>60579</v>
+        <v>60067</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>86472</v>
+        <v>86941</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1704322350412096</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1406568050163673</v>
+        <v>0.1394679165447184</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2007762464753455</v>
+        <v>0.2018660073951238</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>161710</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>149560</v>
+        <v>150676</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>171932</v>
+        <v>171985</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7915115422122475</v>
+        <v>0.7915115422122474</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7320410672293221</v>
+        <v>0.737503233836741</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8415466864541968</v>
+        <v>0.8418035493126098</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>425</v>
@@ -1701,19 +1701,19 @@
         <v>195575</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>187088</v>
+        <v>186692</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202507</v>
+        <v>202559</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8639125350172191</v>
+        <v>0.863912535017219</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8264210671734513</v>
+        <v>0.8246736756381461</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8945330514253267</v>
+        <v>0.8947622966917362</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>649</v>
@@ -1722,19 +1722,19 @@
         <v>357286</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>344217</v>
+        <v>343748</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>370110</v>
+        <v>370622</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8295677649587905</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7992237535246541</v>
+        <v>0.7981339926048762</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8593431949836321</v>
+        <v>0.8605320834552815</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>13712</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8278</v>
+        <v>8404</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21247</v>
+        <v>20778</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0507308585043993</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03062633050301765</v>
+        <v>0.03109194539609483</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07860701190397557</v>
+        <v>0.07687431696202986</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -1847,19 +1847,19 @@
         <v>19309</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13400</v>
+        <v>13393</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27801</v>
+        <v>28709</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07320910764433029</v>
+        <v>0.07320910764433025</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05080390030833996</v>
+        <v>0.05077745087702609</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1054063436060837</v>
+        <v>0.1088492414172194</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -1868,19 +1868,19 @@
         <v>33021</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25132</v>
+        <v>24641</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45179</v>
+        <v>43334</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.06183240503814651</v>
+        <v>0.06183240503814652</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04706057901920856</v>
+        <v>0.04614041225917641</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08459798673376984</v>
+        <v>0.0811444813849637</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>256576</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>249041</v>
+        <v>249510</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262010</v>
+        <v>261884</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9492691414956008</v>
+        <v>0.9492691414956007</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9213929880960243</v>
+        <v>0.9231256830379697</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9693736694969822</v>
+        <v>0.9689080546039049</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>431</v>
@@ -1918,19 +1918,19 @@
         <v>244441</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>235949</v>
+        <v>235041</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>250350</v>
+        <v>250357</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9267908923556698</v>
+        <v>0.9267908923556695</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8945936563939164</v>
+        <v>0.8911507585827805</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.94919609969166</v>
+        <v>0.949222549122974</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>783</v>
@@ -1939,19 +1939,19 @@
         <v>501017</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>488859</v>
+        <v>490704</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>508906</v>
+        <v>509397</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9381675949618532</v>
+        <v>0.9381675949618535</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9154020132662301</v>
+        <v>0.9188555186150361</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9529394209807914</v>
+        <v>0.9538595877408235</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>125548</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>104508</v>
+        <v>101220</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>153097</v>
+        <v>150536</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1761177720422906</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1466030421660894</v>
+        <v>0.1419907843176259</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2147623080336567</v>
+        <v>0.2111699284151842</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>164</v>
@@ -2064,19 +2064,19 @@
         <v>132349</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>114076</v>
+        <v>112862</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>154237</v>
+        <v>153723</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.171744024857885</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1480314985100968</v>
+        <v>0.1464560414334997</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2001471073539449</v>
+        <v>0.199480488190818</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>267</v>
@@ -2085,19 +2085,19 @@
         <v>257897</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>231193</v>
+        <v>227517</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>293783</v>
+        <v>289201</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1738457624676851</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1558449231396069</v>
+        <v>0.153366608719717</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1980358869954827</v>
+        <v>0.1949474555741974</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>587318</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>559769</v>
+        <v>562330</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>608358</v>
+        <v>611646</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8238822279577095</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7852376919663434</v>
+        <v>0.7888300715848159</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8533969578339108</v>
+        <v>0.8580092156823742</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>794</v>
@@ -2135,19 +2135,19 @@
         <v>638270</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>616382</v>
+        <v>616896</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>656543</v>
+        <v>657757</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.828255975142115</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7998528926460551</v>
+        <v>0.8005195118091818</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8519685014899032</v>
+        <v>0.8535439585665</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1284</v>
@@ -2156,19 +2156,19 @@
         <v>1225587</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1189701</v>
+        <v>1194283</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1252291</v>
+        <v>1255967</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8261542375323149</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8019641130045166</v>
+        <v>0.8050525444258025</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8441550768603929</v>
+        <v>0.8466333912802829</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>475516</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>447542</v>
+        <v>447439</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>503755</v>
+        <v>507747</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5977651776696677</v>
+        <v>0.5977651776696676</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.562600154130161</v>
+        <v>0.562470232243228</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6332644879913998</v>
+        <v>0.6382828712590887</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>603</v>
@@ -2281,19 +2281,19 @@
         <v>469070</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>443237</v>
+        <v>441140</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>494513</v>
+        <v>494295</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5642393417726782</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5331651829437024</v>
+        <v>0.5306427034666134</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5948454477819402</v>
+        <v>0.5945821522254895</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1058</v>
@@ -2302,19 +2302,19 @@
         <v>944586</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>905865</v>
+        <v>906897</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>982434</v>
+        <v>985104</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5806329405877826</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5568314087293712</v>
+        <v>0.5574659390147713</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.603898149746989</v>
+        <v>0.6055391254829183</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>319973</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>291734</v>
+        <v>287742</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>347947</v>
+        <v>348050</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4022348223303323</v>
+        <v>0.4022348223303322</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3667355120086002</v>
+        <v>0.3617171287409113</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4373998458698388</v>
+        <v>0.4375297677567721</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>459</v>
@@ -2352,19 +2352,19 @@
         <v>362261</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>336818</v>
+        <v>337036</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>388094</v>
+        <v>390191</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4357606582273218</v>
+        <v>0.4357606582273217</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4051545522180599</v>
+        <v>0.4054178477745109</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4668348170562976</v>
+        <v>0.4693572965333868</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>763</v>
@@ -2373,19 +2373,19 @@
         <v>682235</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>644387</v>
+        <v>641717</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>720956</v>
+        <v>719924</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4193670594122175</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3961018502530109</v>
+        <v>0.3944608745170815</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4431685912706288</v>
+        <v>0.4425340609852287</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>845192</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>791137</v>
+        <v>794244</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>900577</v>
+        <v>904423</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2403286742772528</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2249582832017638</v>
+        <v>0.2258416467549911</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2560772528150941</v>
+        <v>0.2571708898820211</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1214</v>
@@ -2498,19 +2498,19 @@
         <v>909481</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>864091</v>
+        <v>861340</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>958980</v>
+        <v>957761</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2438997214752833</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.231727191855568</v>
+        <v>0.2309893842521634</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2571740754709081</v>
+        <v>0.2568470258195271</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2002</v>
@@ -2519,19 +2519,19 @@
         <v>1754674</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1683045</v>
+        <v>1676117</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1827717</v>
+        <v>1820080</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2421664636400184</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2322807748404576</v>
+        <v>0.2313246943039069</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2522472981705892</v>
+        <v>0.2511933908100955</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>2671626</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2616241</v>
+        <v>2612395</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2725681</v>
+        <v>2722574</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7596713257227471</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7439227471849051</v>
+        <v>0.7428291101179788</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7750417167982361</v>
+        <v>0.7741583532450087</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4139</v>
@@ -2569,19 +2569,19 @@
         <v>2819434</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2769935</v>
+        <v>2771154</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2864824</v>
+        <v>2867575</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.7561002785247167</v>
+        <v>0.7561002785247166</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.742825924529092</v>
+        <v>0.743152974180473</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7682728081444322</v>
+        <v>0.7690106157478367</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6711</v>
@@ -2590,19 +2590,19 @@
         <v>5491060</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5418017</v>
+        <v>5425654</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5562689</v>
+        <v>5569617</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7578335363599815</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7477527018294109</v>
+        <v>0.7488066091899045</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7677192251595427</v>
+        <v>0.768675305696093</v>
       </c>
     </row>
     <row r="30">
